--- a/Mucosal antibody response to vaccines.xlsx
+++ b/Mucosal antibody response to vaccines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Master thesis  Quentin\Data\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Inactivated-vaccines-tilapia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC9CBB-CC31-4C30-AAB5-F78BBF0695EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6ACAFD-55F8-4536-9150-EC7238DB7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2160" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{1C81741C-54A8-4634-8926-2D8BF735A586}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{1C81741C-54A8-4634-8926-2D8BF735A586}"/>
   </bookViews>
   <sheets>
     <sheet name="Monovalent" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
   <si>
     <t>Day_post_vaccination</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B86880-0E3E-4283-B30C-54437A2D49C8}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,20 +612,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
@@ -794,20 +780,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
@@ -976,20 +948,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40">
-        <v>0.5</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
@@ -1156,20 +1114,6 @@
       </c>
       <c r="D52">
         <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>0.5</v>
-      </c>
-      <c r="D53">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1179,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E340F3C-DC8B-44C6-8A7C-D12EBADB14D4}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,20 +1319,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>84</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
@@ -1557,20 +1487,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
-      </c>
-      <c r="D27">
-        <v>12</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
@@ -1739,20 +1655,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>84</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>0.5</v>
-      </c>
-      <c r="D40">
-        <v>12</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
@@ -1919,20 +1821,6 @@
       </c>
       <c r="D52">
         <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>0.5</v>
-      </c>
-      <c r="D53">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Mucosal antibody response to vaccines.xlsx
+++ b/Mucosal antibody response to vaccines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Inactivated-vaccines-tilapia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6ACAFD-55F8-4536-9150-EC7238DB7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240F0A13-0D24-40C3-95EE-DABBE3D48184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{1C81741C-54A8-4634-8926-2D8BF735A586}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{1C81741C-54A8-4634-8926-2D8BF735A586}"/>
   </bookViews>
   <sheets>
     <sheet name="Monovalent" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="10">
   <si>
     <t>Day_post_vaccination</t>
   </si>
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B86880-0E3E-4283-B30C-54437A2D49C8}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C145" sqref="C98:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -480,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -550,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -606,513 +606,2529 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="D13">
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1.3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="C21">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="D22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2.6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>3.9</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
       <c r="C46">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47">
-        <v>0.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
       <c r="C48">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>0.3</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>0.4</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>0.6</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>0.7</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>0.8</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0.9</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>77</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>1.2</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>1.3</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1.4</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1.5</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>1.6</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>1.7</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>1.8</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>1.9</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>49</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>2.1</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>2.4</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>2.5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>2.6</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>2.7</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>2.8</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>2.9</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>35</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>42</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>3.1</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>3.2</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>3.3</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>3.4</v>
+      </c>
+      <c r="D83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>70</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>3.5</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>3.6</v>
+      </c>
+      <c r="D85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>3.7</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>3.8</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>3.9</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>35</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>4.2</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>42</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>4.3</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>56</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>4.5</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>4.7</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>77</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>4.8</v>
+      </c>
+      <c r="D97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>1.8500000000000101</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>1.9000000000000099</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>1.9500000000000099</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>2.0000000000000102</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>2.05000000000001</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>35</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>2.1000000000000099</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>42</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>2.1500000000000101</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>49</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>2.2000000000000099</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>2.2500000000000102</v>
+      </c>
+      <c r="D106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>63</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>2.30000000000001</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>2.3500000000000099</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>2.4000000000000101</v>
+      </c>
+      <c r="D109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>2.4500000000000099</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>2.5000000000000102</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>2.55000000000001</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>21</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>2.6000000000000099</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>2.6500000000000101</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>35</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>2.7000000000000099</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>42</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>2.75</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>2.8</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>2.85</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>2.9</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>70</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>2.95</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>77</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>3.05</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>3.1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>3.15</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>3.2</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>3.25</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>35</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>3.3</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>42</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>3.35</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>49</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>3.4</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>3.45</v>
+      </c>
+      <c r="D130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>3.5</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>70</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>3.55</v>
+      </c>
+      <c r="D132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>77</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>3.6</v>
+      </c>
+      <c r="D133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>3.65</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>3.7</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>3.75</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>3.8</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>3.85</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>35</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>3.9</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>42</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>3.95</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>49</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>56</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>4.05</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>63</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>70</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>77</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>4.2</v>
+      </c>
+      <c r="D145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>0.2</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>0.3</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>0.4</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>0.5</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>28</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>0.6</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>35</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>0.7</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>42</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>0.8</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>49</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>0.9</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>56</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>63</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>70</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>1.2</v>
+      </c>
+      <c r="D156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>77</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>1.3</v>
+      </c>
+      <c r="D157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>1.4</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>1.5</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>1.6</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>1.7</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>28</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>1.8</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>35</v>
+      </c>
+      <c r="B163" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>1.9</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>42</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>49</v>
+      </c>
+      <c r="B165" t="s">
+        <v>9</v>
+      </c>
+      <c r="C165">
+        <v>2.1</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>56</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>63</v>
+      </c>
+      <c r="B167" t="s">
+        <v>9</v>
+      </c>
+      <c r="C167">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>70</v>
+      </c>
+      <c r="B168" t="s">
+        <v>9</v>
+      </c>
+      <c r="C168">
+        <v>2.4</v>
+      </c>
+      <c r="D168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>77</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>2.5</v>
+      </c>
+      <c r="D169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>2.6</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>2.7</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>2.8</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>2.9</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>35</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>3.1</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>42</v>
+      </c>
+      <c r="B176" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>3.2</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>49</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>3.3</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>56</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>3.4</v>
+      </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>63</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>3.5</v>
+      </c>
+      <c r="D179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>70</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>3.6</v>
+      </c>
+      <c r="D180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>77</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>3.7</v>
+      </c>
+      <c r="D181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>3.8</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>3.9</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>14</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>4.2</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>35</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>4.3</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>42</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>49</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189">
+        <v>4.5</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>56</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>63</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>4.7</v>
+      </c>
+      <c r="D191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>70</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192">
+        <v>4.8</v>
+      </c>
+      <c r="D192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>77</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D193">
         <v>11</v>
       </c>
     </row>
@@ -1125,7 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E340F3C-DC8B-44C6-8A7C-D12EBADB14D4}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
